--- a/biology/Botanique/Viticulture_en_Italie/Viticulture_en_Italie.xlsx
+++ b/biology/Botanique/Viticulture_en_Italie/Viticulture_en_Italie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La viticulture en Italie est produite dans toutes les régions d'Italie, le plus vieux producteurs de vin au monde. Le vignoble s'étend dans toutes les régions italiennes, de Trentin-Haut-Adige à la Sicile.
-L'Italie est, selon l'Organisation internationale de la vigne et du vin (OIV), le deuxième producteur mondial avec un total de 43,9 millions d'hectolitres en 2023 derrière la France (avec 45,8 millions d'hectolitres) mais devant l'Espagne (30,7 millions d'hectolitres)[1] et le premier pays au monde par exportation, devant l'Espagne et la France, avec 21,6 million d'hectolitres.
+L'Italie est, selon l'Organisation internationale de la vigne et du vin (OIV), le deuxième producteur mondial avec un total de 43,9 millions d'hectolitres en 2023 derrière la France (avec 45,8 millions d'hectolitres) mais devant l'Espagne (30,7 millions d'hectolitres) et le premier pays au monde par exportation, devant l'Espagne et la France, avec 21,6 million d'hectolitres.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La viticulture en Italie remonte à la plus haute Antiquité. Les Romains et avant eux les Étrusques cultivaient la vigne. Les Grecs avaient donné au territoire le surnom d'Œnotria signifiant la terre du vin (appellation plus spécifique à la Calabre, alors colonie grecque)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La viticulture en Italie remonte à la plus haute Antiquité. Les Romains et avant eux les Étrusques cultivaient la vigne. Les Grecs avaient donné au territoire le surnom d'Œnotria signifiant la terre du vin (appellation plus spécifique à la Calabre, alors colonie grecque).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Réglementation italienne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès 1200, la république de Florence divisa son territoire en « ligues », identifiant, dès cette époque la zone du Chianti, vouée à la viticulture depuis le temps des Étrusques[réf. souhaitée].
 En date de 2021, deux réglementations fondamentales régissant la production viti-vinicole en Italie se sont succédé. La première était la loi no 116 du 3 février 1963 qui portait sur les normes en matière de dénominations d'origine des moûts et des vins et qui fut en vigueur jusqu'en 1992. Puis la loi no 164 du 10 février 1992 dite loi Goria intitulée « Nouvelle réglementation des dénominations d'origine ».
@@ -583,9 +599,11 @@
           <t>Différents types</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les étiquettes des bouteilles de vin italien comportent parfois une mention traditionnelle[3] ou une spécification sur le type de vin. Parmi les plus courantes, on peut citer :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les étiquettes des bouteilles de vin italien comportent parfois une mention traditionnelle ou une spécification sur le type de vin. Parmi les plus courantes, on peut citer :
 Abboccato : entre un vin demi-sec et demi-doux ;
 Amabile : équivalent d'un demi-sec ;
 Classico : vins dont l'aire de production est restreinte au sein de la dénomination ;
@@ -631,7 +649,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cépages rouges
+          <t>Cépages rouges</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aglianico (Basilicate, Campanie, Pouilles, Molise)
 Aleatico (Île d'Elbe,Latium)
 Ancellotta (Émilie-Romagne, Frioul-Vénétie Julienne)
@@ -733,7 +757,43 @@
 Vespolina (Piémont, Lombardie)
 Vien de Nus (Val d'Aoste)
 Vuillermin (Val d'Aoste)
-Cépages blancs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cépages cultivés en Italie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cépages blancs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Albana (Émilie-Romagne)
 Ansonica (Sicile, Toscane)
 Arneis (Piémont)
@@ -813,8 +873,43 @@
 Vernaccia (Toscane, Sardaigne)
 Vitouska (Frioul-Vénétie Julienne)
 Zibibbo (Sicile)
-Croisements modernes
-Le croisement Herold : Kerner, (Trentin-Haut-Adige).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cépages cultivés en Italie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Croisements modernes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le croisement Herold : Kerner, (Trentin-Haut-Adige).
 Les croisements Manzoni :
 Manzoni rouge (Incrocio Manzoni 2-15) ; Glera x Cabernet franc, (Vénétie).
 Manzoni blanc (Incrocio Manzoni 6.0.13) ; Riesling x Pinot blanc, (Trentin-Haut-Adige, Frioul-Vénétie Julienne, Vénétie).
@@ -826,71 +921,486 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Viticulture_en_Italie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Terroirs italiens</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Vins des Abruzzes
-Le vin DOCG Montepulciano d'Abruzzo Colline Teramane.
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vins des Abruzzes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le vin DOCG Montepulciano d'Abruzzo Colline Teramane.
 Controguerra (vin blanc dans les versions Frizzante, Spumante); Passito et Passito Annoso; vin rouge dans les versions Riserva, Novello, Passito et Passito Annoso; les vins de cépage: Chardonnay (blanc); Malvasia (blanc); Passerina (blanc); Riesling (blanc); Cabernet (vin rouge et la version Riserva); Ciliegiolo (vin rouge et la version Riserva); Merlot (vin rouge et la version Riserva); Pinot Nero (vin rouge et la version Riserva); Moscato Amabile (blanc);
 Montepulciano d'Abruzzo (Cerasuolo; Rosso et la version Riserva) ;
-Trebbiano d'Abruzzo.
-Vins de Basilicate
-Ils comprennent : Aglianico del Vulture (DOC) (Aglianico del Vulture Superiore (DOCG)), Matera (DOC), Terre dell'Alta Val d'Agri (DOC), et Grottino di Roccanova (DOC).
-Vins de Calabre
-Ils comprennent : Cirò (Cirò bianco, Cirò rosso classico).
-Vins de Campanie
-Les vins DOCG sont : Aglianico del Taburno, Fiano di Avellino, Greco di Tufo, et Taurasi.
+Trebbiano d'Abruzzo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vins de Basilicate</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils comprennent : Aglianico del Vulture (DOC) (Aglianico del Vulture Superiore (DOCG)), Matera (DOC), Terre dell'Alta Val d'Agri (DOC), et Grottino di Roccanova (DOC).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vins de Calabre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils comprennent : Cirò (Cirò bianco, Cirò rosso classico).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vins de Campanie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les vins DOCG sont : Aglianico del Taburno, Fiano di Avellino, Greco di Tufo, et Taurasi.
 Les vins DOC sont : Aversa, Campi Flegrei, Capri, Castel San Lorenzo, Cilento, Costa d'Amalfi, Falanghina del Sannio, Falerno del Massico, Galluccio, Irpinia, Ischia, Penisola sorrentina, Sannio, et Vesuvio (dont le Lacryma Christi).
-Les vins IGT sont : Benevento ou Beneventano, Campania, Catalanesca del Monte Somma, Colli di Salerno, Dugenta, Epomeo, Paestum, Pompeiano, Roccamonfina, et Terre del Volturno.
-Vins d'Émilie-Romagne
-Les vins DOCG sont Colli Bolognesi Classico Pignoletto et Albana di Romagna.
+Les vins IGT sont : Benevento ou Beneventano, Campania, Catalanesca del Monte Somma, Colli di Salerno, Dugenta, Epomeo, Paestum, Pompeiano, Roccamonfina, et Terre del Volturno.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vins d'Émilie-Romagne</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Les vins DOCG sont Colli Bolognesi Classico Pignoletto et Albana di Romagna.
 Les vins DOC sont : Bianco di Scandiano, Bosco Eliceo, Colli Bolognesi, Colli d'Imola, Colli di Faenza, Colli di Parma, Colli di Rimini, Colli di Scandiano e di Canossa, Colli Piacentini, Colli Romagna Centrale, Gutturnio, Lambrusco (Lambrusco di Sorbara, Lambrusco Grasparossa di Castelvetro, Lambrusco Salamino di Santa Croce), Modena ou di Modena, Montuni del Reno, Ortrugo, Reggiano, Reno, et Romagna.
-Les vins IGT sont : Bianco di Castelfranco Emilia, Emilia ou dell’Emilia, Forlì, Fortana del Taro, Ravenna, Rubicone, Sillaro o Bianco del Sillaro, Terre di Veleja, et Val Tidone.
-Vins du Frioul-Vénétie-Julienne
-Les vins DOCG sont : Ramandolo (blanc), Picolit (blanc).
+Les vins IGT sont : Bianco di Castelfranco Emilia, Emilia ou dell’Emilia, Forlì, Fortana del Taro, Ravenna, Rubicone, Sillaro o Bianco del Sillaro, Terre di Veleja, et Val Tidone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vins du Frioul-Vénétie-Julienne</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Les vins DOCG sont : Ramandolo (blanc), Picolit (blanc).
 Les vins DOC sont : Carso (blancs et rouges), Colli Orientali del Friuli (blancs et rouges), Collio Goriziano (blancs et rouges), Friuli Annia (blancs et rouges), Friuli Aquileia (blancs et rouges), Friuli Grave (blancs, rosés et rouges), Friuli Isonzo (blancs et rouges), Friuli Latisana (blancs et rouges).
-Les vins IGT sont : Alto Livenza, Delle Venezie, Vénétie julienne.
-Vins du Latium
-Vins DOCG : Cesanese del Piglio (produit dans la province de Frosinone), Cannellino di Frascati (produit dans la province de Rome), Frascati Superiore (produit dans la province de Rome).
+Les vins IGT sont : Alto Livenza, Delle Venezie, Vénétie julienne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vins du Latium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Vins DOCG : Cesanese del Piglio (produit dans la province de Frosinone), Cannellino di Frascati (produit dans la province de Rome), Frascati Superiore (produit dans la province de Rome).
 Vins DOC : Aleatico di Gradi (produit dans la province de Viterbo), Aprilia produit dans la province de Latina, Atina (Atina Rosso, Atina Cabernet, Atina Rosso Riserva, Atina Cabernet Riserva, Atina Semillon) produits dans la province de Frosinone, Bianco Capena (produit dans la province de Rome), Castelli Romani (produit dans la province de Rome), Cerveteri (produit dans la province de Rome et Viterbo), Cesanese di Affile (produit dans la province de Frosinone), Cesanese di Olevano (produit dans la province de Rome), Circeo (produit dans la province de Latina), Colli Albani (produit dans la province de Rome), Colli Della Sabina (produit dans la province de Rome), Colli Etruschi Viterbesi (produit dans la province de Viterbo), Colli Lanuvini (produit dans la province de Rome), Cori (Rosso, Bianco) (produit dans la province de Latina), Est!Est!!Est!!! (produit dans la province de Viterbo), Frascati (produit dans la province de Rome), Genazzano (produit dans la province de Rome et Frosinone), Marino' (produit dans la province de Rome), Merlot di Aprilia (produit dans la province de Latina), Orvieto (produit dans la province de Viterbo), Tarquinia (produit dans la province de Rome et Viterbo), Velletri (produit dans la province de Rome et Latina), Vignanello (produit dans la province de Viterbo), Zagarolo (produit dans la province de Rome).
-Vins IGT : Anagni (produit dans la province de Rome), Civitella d'Agliano (produit dans la province de Viterbo), Colli Cimini (produit dans la province de Viterbo), Frusinate (produit dans la province de Frosinone), Lazio (produit dans la région du Latium).
-Vins de la Ligurie
-Vins DOC : Cinque Terre (Costa de Sera, Costa de Campu, Costa da Posa), Cinque Terre Sciacchetrà, Colli di Luni, Colline di Levanto, Golfo del Tigullio, Riviera ligure di Ponente (Albenga, Finale, Riviera dei Fiori), Rossese di Dolceacqua (ou Dolceacqua), Val Polcevera.
-Vins de la Lombardie
-Vins DOCG : Franciacorta, Valtellina (Grumello, Inferno, Sassella, Valgella).
-Vins DOC : Barbacarlo, Botticino, Capriano del Colle, Cellatica, Garda, Garda Bresciano, Garda Colli Mantovani, Lugana, Oltrepò pavese, San Colombano al Lambro, San Martino della Battaglia, Terre di Franciacorta, Valcalepio, Valtellina.
-Vins de Marche
-Vins DOC : Bianchello del Metauro, Colli Maceratesi, Colli Pesaresi, Esino, Falerio dei Colli Ascolani, Lacrima di Morro d’Alba, Rosso Conero, Rosso Piceno, Verdicchio dei Castelli di Jesi (Classico), Verdicchio di Matelica, Vernaccia di Serrapetrona.
-Vins du Molise
-Vins DOC : Biferno, Molise, Pentro di Isernia.
-Vins d'Ombrie
-Vins DOCG : Sagrantino di Montefalco, Torgiano Rosso.
-Vins DOC : Assisi, Colli del Trasimeno, Colli altotiberini.
-Vins du Piémont
-Vins DOCG :
+Vins IGT : Anagni (produit dans la province de Rome), Civitella d'Agliano (produit dans la province de Viterbo), Colli Cimini (produit dans la province de Viterbo), Frusinate (produit dans la province de Frosinone), Lazio (produit dans la région du Latium).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vins de la Ligurie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Vins DOC : Cinque Terre (Costa de Sera, Costa de Campu, Costa da Posa), Cinque Terre Sciacchetrà, Colli di Luni, Colline di Levanto, Golfo del Tigullio, Riviera ligure di Ponente (Albenga, Finale, Riviera dei Fiori), Rossese di Dolceacqua (ou Dolceacqua), Val Polcevera.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vins de la Lombardie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Vins DOCG : Franciacorta, Valtellina (Grumello, Inferno, Sassella, Valgella).
+Vins DOC : Barbacarlo, Botticino, Capriano del Colle, Cellatica, Garda, Garda Bresciano, Garda Colli Mantovani, Lugana, Oltrepò pavese, San Colombano al Lambro, San Martino della Battaglia, Terre di Franciacorta, Valcalepio, Valtellina.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Vins de Marche</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Vins DOC : Bianchello del Metauro, Colli Maceratesi, Colli Pesaresi, Esino, Falerio dei Colli Ascolani, Lacrima di Morro d’Alba, Rosso Conero, Rosso Piceno, Verdicchio dei Castelli di Jesi (Classico), Verdicchio di Matelica, Vernaccia di Serrapetrona.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Vins du Molise</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Vins DOC : Biferno, Molise, Pentro di Isernia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Vins d'Ombrie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Vins DOCG : Sagrantino di Montefalco, Torgiano Rosso.
+Vins DOC : Assisi, Colli del Trasimeno, Colli altotiberini.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Vins du Piémont</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Vins DOCG :
 Asti en sous appellation Asti spumante (blanc) et Moscato d'Asti (blanc) produit dans les provinces d'Asti, de Coni et d'Alexandrie.
 Barbaresco (rouge, existe en version normale et riserva) produit dans la province de Coni.
 Barolo (rouge, existe en version normale, riserva et chinato) produit dans la province de Coni.
@@ -943,26 +1453,266 @@
 Ruché di Castagnole Monferrato produit en province d'Asti
 Sizzano produit en province de Novara
 Valsusa produit en province de Turin dans la Val de Suse.
-Verduno Pelaverga produit en province de Coni
-Vins des Pouilles
-Les vins DOC sont : Aleatico di Puglia, Alezio, Brindisi, Cacc’e mmitte di Lucera, Castel del Monte, Copertino, Galatina, Gioia del Colle, Gravina, Leverano, Lizzano, Locorotondo, Martina (ou Martina Franca), Matino, Moscato di Trani, Nardò, Orta Nova, Ostuni, Primitivo di Manduria, Rosso Barletta, Rosso Canosa, Rosso di Cerignola, Salice Salentino, San Severo, Squinzano.
-Les vins IGT sont : Daunia (province de Foggia), Murgia (province de Bari), Puglia, Rosa del golfo (penisule de Salentina), Salento (provinces de Brindisi, Lecce et Tarante), Tarantino (province de Tarante), Valle d'Itria (provinces de Bari, Brindisi et Tarante).
-Vins de Sardaigne
-Le vin DOCG de la région est le Vementino di Gallura.
-Les vins DOC sont : Alghero, Arborea, Campidano di Terralba, Cannonau di Sardegna (Capo Ferrato, Jerzu, Oliena ou Nepente di Oliena, Carignano del Sulcis, Girò di Cagliari, Malvasia di Bosa, Malvasia di Cagliari, Mandrolisai, Monica di Cagliari, Monica di Sardegna, Moscato di Cagliari, Moscato di Sardegna (Gallura, Tempio Pausania), Moscato di Sorso Sennori, Nasco di Cagliari, Nuragus di Cagliari, Sardegna Semidano (Mogoro), Vermentino di Sardegna (Gallura), et Vernaccia di Oristano.
-Vins de Sicile
-Le vin DOCG est le Cerasuolo di Vittoria.
-Les vins DOC sont : Alcamo, Contea di Sclafani, Contessa Entellina, Delia Nivolelli, Eloro, Erice, Etna, Faro, Malvasia delle Lipari, Mamertino di Milazzo, Marsala, Menfi, Monreale, Moscato di Pantelleria, Moscato di Siracusa, Noto, Riesi, Salaparuta, Sambuca di Sicilia, Santa Margherita di Belice, Sciacca, et Vittoria.
-Vins de Toscane
-Ils regroupent : Carmignano (DOCG), Chianti, Bolgheri, Brunello di Montalcino (DOCG), Vino Nobile di Montepulciano (DOCG), Colline Lucchesi (DOP), Morellino di Scansano (DOP), et Vin santo.
-Vins du Trentin-Haut-Adige
-Les cépages regroupent : Blauburgunder (Pinot nero), Cabernet franc, Cabernet sauvignon, Chardonnay, Gewürztraminer (Traminer aromatico), Goldmuskateller (Moscato giallo), Grauburgunder (Pinot grigio), Groppello di Santo Stefano, Grauvernatsch (Schiava grigia), Kerner, Lagrein, Malvasia, Marzemino, Merlot, Müller Thurgau, Negrara trentina, Riesling, Rosenmuskateller (Moscato rosa), Sauvignon, Sylvaner, Vernatsch (Schiava), Weißburgunder (Pinot bianco), et Welschriesling (Riesling italico)
+Verduno Pelaverga produit en province de Coni</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Vins des Pouilles</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Les vins DOC sont : Aleatico di Puglia, Alezio, Brindisi, Cacc’e mmitte di Lucera, Castel del Monte, Copertino, Galatina, Gioia del Colle, Gravina, Leverano, Lizzano, Locorotondo, Martina (ou Martina Franca), Matino, Moscato di Trani, Nardò, Orta Nova, Ostuni, Primitivo di Manduria, Rosso Barletta, Rosso Canosa, Rosso di Cerignola, Salice Salentino, San Severo, Squinzano.
+Les vins IGT sont : Daunia (province de Foggia), Murgia (province de Bari), Puglia, Rosa del golfo (penisule de Salentina), Salento (provinces de Brindisi, Lecce et Tarante), Tarantino (province de Tarante), Valle d'Itria (provinces de Bari, Brindisi et Tarante).</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Vins de Sardaigne</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Le vin DOCG de la région est le Vementino di Gallura.
+Les vins DOC sont : Alghero, Arborea, Campidano di Terralba, Cannonau di Sardegna (Capo Ferrato, Jerzu, Oliena ou Nepente di Oliena, Carignano del Sulcis, Girò di Cagliari, Malvasia di Bosa, Malvasia di Cagliari, Mandrolisai, Monica di Cagliari, Monica di Sardegna, Moscato di Cagliari, Moscato di Sardegna (Gallura, Tempio Pausania), Moscato di Sorso Sennori, Nasco di Cagliari, Nuragus di Cagliari, Sardegna Semidano (Mogoro), Vermentino di Sardegna (Gallura), et Vernaccia di Oristano.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Vins de Sicile</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Le vin DOCG est le Cerasuolo di Vittoria.
+Les vins DOC sont : Alcamo, Contea di Sclafani, Contessa Entellina, Delia Nivolelli, Eloro, Erice, Etna, Faro, Malvasia delle Lipari, Mamertino di Milazzo, Marsala, Menfi, Monreale, Moscato di Pantelleria, Moscato di Siracusa, Noto, Riesi, Salaparuta, Sambuca di Sicilia, Santa Margherita di Belice, Sciacca, et Vittoria.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Vins de Toscane</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils regroupent : Carmignano (DOCG), Chianti, Bolgheri, Brunello di Montalcino (DOCG), Vino Nobile di Montepulciano (DOCG), Colline Lucchesi (DOP), Morellino di Scansano (DOP), et Vin santo.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Vins du Trentin-Haut-Adige</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Les cépages regroupent : Blauburgunder (Pinot nero), Cabernet franc, Cabernet sauvignon, Chardonnay, Gewürztraminer (Traminer aromatico), Goldmuskateller (Moscato giallo), Grauburgunder (Pinot grigio), Groppello di Santo Stefano, Grauvernatsch (Schiava grigia), Kerner, Lagrein, Malvasia, Marzemino, Merlot, Müller Thurgau, Negrara trentina, Riesling, Rosenmuskateller (Moscato rosa), Sauvignon, Sylvaner, Vernatsch (Schiava), Weißburgunder (Pinot bianco), et Welschriesling (Riesling italico)
 Les vins DOC sont : Alto Adige (Südtirol, Südtiroler), Caldaro (Lago di Caldaro, Kalterersee, Kalterer), Casteller, Santa Maddalena, Teroldego Rotaliano, Trentino, Trento, et Valdadige.
-Les vins IGT sont : Atesino delle Venezie, Delle Venezie, Mitterberg tra Cauria e Tel, et Vallagarina.
-Vins du Val d'Aoste
-Les vins DOC valdôtains sont : Vallée d'Aoste Arnad-Montjovet, Vallée d'Aoste Arnad-Montjovet supérieur, Vallée d'Aoste Blanc de Morgex et de La Salle, Vallée d'Aoste Chambave Muscat, Vallée d'Aoste Chambave Muscat Vin de paille, Vallée d'Aoste Chambave rouge, Vallée d'Aoste Chardonnay, Vallée d'Aoste Donnas, Vallée d'Aoste Enfer d'Arvier, Vallée d'Aoste Fumin, Vallée d'Aoste Gamay, Vallée d'Aoste Müller Thurgau, Vallée d'Aoste Nus Malvoisie, Vallée d'Aoste Nus Malvoisie Vin de paille, Vallée d'Aoste Nus rouge, Vallée d'Aoste Petit Rouge, Vallée d'Aoste Petite Arvine, Vallée d'Aoste Pinot Gris, Vallée d'Aoste Pinot Noir, Vallée d'Aoste Premetta, Vallée d'Aoste Torrette, Vallée d'Aoste Torrette supérieur, Vallée d'Aoste blanc,Vallée d'Aoste nouveau, Vallée d'Aoste rosé, et Vallée d'Aoste rouge.
-Vins de Vénétie
-Les 14 vins DOCG sont[4] : Amarone della Valpolicella, Bagnoli Friularo, Bardolino superiore, Colli Asolani (Prosecco), Colli di Conegliano, Colli Euganei Fior d'Arancio, Lison, Montello, Piave Malanotte, Conegliano-Valdobbiadene (Prosecco), Recioto della Valpolicella, Recioto di Gambellara, Recioto di Soave, et Soave Superiore.
+Les vins IGT sont : Atesino delle Venezie, Delle Venezie, Mitterberg tra Cauria e Tel, et Vallagarina.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Vins du Val d'Aoste</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins DOC valdôtains sont : Vallée d'Aoste Arnad-Montjovet, Vallée d'Aoste Arnad-Montjovet supérieur, Vallée d'Aoste Blanc de Morgex et de La Salle, Vallée d'Aoste Chambave Muscat, Vallée d'Aoste Chambave Muscat Vin de paille, Vallée d'Aoste Chambave rouge, Vallée d'Aoste Chardonnay, Vallée d'Aoste Donnas, Vallée d'Aoste Enfer d'Arvier, Vallée d'Aoste Fumin, Vallée d'Aoste Gamay, Vallée d'Aoste Müller Thurgau, Vallée d'Aoste Nus Malvoisie, Vallée d'Aoste Nus Malvoisie Vin de paille, Vallée d'Aoste Nus rouge, Vallée d'Aoste Petit Rouge, Vallée d'Aoste Petite Arvine, Vallée d'Aoste Pinot Gris, Vallée d'Aoste Pinot Noir, Vallée d'Aoste Premetta, Vallée d'Aoste Torrette, Vallée d'Aoste Torrette supérieur, Vallée d'Aoste blanc,Vallée d'Aoste nouveau, Vallée d'Aoste rosé, et Vallée d'Aoste rouge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viticulture_en_Italie</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Terroirs italiens</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Vins de Vénétie</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Les 14 vins DOCG sont : Amarone della Valpolicella, Bagnoli Friularo, Bardolino superiore, Colli Asolani (Prosecco), Colli di Conegliano, Colli Euganei Fior d'Arancio, Lison, Montello, Piave Malanotte, Conegliano-Valdobbiadene (Prosecco), Recioto della Valpolicella, Recioto di Gambellara, Recioto di Soave, et Soave Superiore.
 Les vins DOC sont : Arcole, Bagnoli di Sopra, Bardolino, Bianco di Custoza, Breganze, Colli Berici, Colli Euganei, Friuli Isonzo bianco frizzante, Gambellara, Garda, Lessini Durello, Lison Pramaggiore, Lugana, Monte Lessini, Montello e Colli Asolani, Piave, Prosecco, Recioto della Valpolicella, San Martino della Battaglia, Soave, Valdadige, Valpolicella et Valpolicella Ripasso, Verduzzo.
 Les vins IGT sont : Alto Livenza, Colli Trevigiani, Conselvano, Delle Venezie, Marca Trevigiana, Provincia di Verona ou Veronese, Vallagarina, Veneto, Veneto orientale, et Vigneti delle Dolomiti.</t>
         </is>
